--- a/01_dados/rendimento_saudebucal.xlsx
+++ b/01_dados/rendimento_saudebucal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e94e91ad3b9f2a1e/Documentos/saude_bucal/01_dados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapei_Cigets\Documents\GitHub\saude_bucal\01_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_EA62F334A91166DBE0C435BF073E1B939259A6BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E15EF803-4E98-4BD5-83BD-27380C5E05E6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F53E7AE-7F0B-4225-9057-FD058BE15B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -446,16 +446,16 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +466,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -477,7 +477,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -488,7 +488,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -499,7 +499,7 @@
         <v>1770.67</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -510,7 +510,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -521,7 +521,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -532,7 +532,7 @@
         <v>1381.33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -543,7 +543,7 @@
         <v>1539.33</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -554,7 +554,7 @@
         <v>1398.3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -565,7 +565,7 @@
         <v>1564.12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -576,7 +576,7 @@
         <v>1293.43</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -587,7 +587,7 @@
         <v>1689.33</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -598,7 +598,7 @@
         <v>2122.89</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -609,7 +609,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -620,7 +620,7 @@
         <v>1501.43</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -631,7 +631,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -642,7 +642,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -653,7 +653,7 @@
         <v>1875.9</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -664,7 +664,7 @@
         <v>1849.11</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -675,7 +675,7 @@
         <v>1957.3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -686,7 +686,7 @@
         <v>2266.37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -697,7 +697,7 @@
         <v>2217.86</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -708,7 +708,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -719,7 +719,7 @@
         <v>2159.33</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -730,7 +730,7 @@
         <v>1568.67</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -741,7 +741,7 @@
         <v>1785.71</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -752,7 +752,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
